--- a/Book1.xlsx
+++ b/Book1.xlsx
@@ -2,15 +2,15 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
-  <workbookPr defaultThemeVersion="202300"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\source\お勉強18\AVXPrePost\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\sourcecode\宿題\AVXPrePost\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D9586D0D-7A6A-40B6-9241-4D68FEC89943}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{788F0E49-ACB2-401A-8352-D3A92740158B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="18240" xr2:uid="{9D997C5B-3C59-4B24-871F-C5063E813536}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{9D997C5B-3C59-4B24-871F-C5063E813536}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -54,7 +54,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="12">
+  <fills count="13">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -118,6 +118,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF7030A0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -225,7 +231,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -311,6 +317,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -650,7 +659,7 @@
   <dimension ref="B2:CS23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="AC4" sqref="AC4"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -1446,9 +1455,15 @@
     </row>
     <row r="5" spans="2:97" x14ac:dyDescent="0.4">
       <c r="Q5"/>
-      <c r="AG5"/>
-      <c r="AW5"/>
-      <c r="BM5"/>
+      <c r="BM5" s="29"/>
+      <c r="BN5" s="29"/>
+      <c r="BO5" s="29"/>
+      <c r="BP5" s="29"/>
+      <c r="BQ5" s="29"/>
+      <c r="BR5" s="29"/>
+      <c r="BS5" s="29"/>
+      <c r="BT5" s="29"/>
+      <c r="BU5" s="29"/>
     </row>
     <row r="11" spans="2:97" x14ac:dyDescent="0.4">
       <c r="B11" s="2">
